--- a/DataCreation/output.xlsx
+++ b/DataCreation/output.xlsx
@@ -4,10 +4,11 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet11" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1541,6 +1542,405 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AE4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0.1487852782011032</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.0783773809671402</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.2432117611169815</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.2239810973405838</v>
+      </c>
+      <c r="E1" t="n">
+        <v>-0.1351961344480515</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0.1481577008962631</v>
+      </c>
+      <c r="G1" t="n">
+        <v>-0.08848177641630173</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0.2620859444141388</v>
+      </c>
+      <c r="I1" t="n">
+        <v>-0.05085187405347824</v>
+      </c>
+      <c r="J1" t="n">
+        <v>0.1901565492153168</v>
+      </c>
+      <c r="K1" t="n">
+        <v>-0.02943075075745583</v>
+      </c>
+      <c r="L1" t="n">
+        <v>-0.2893818914890289</v>
+      </c>
+      <c r="M1" t="n">
+        <v>-0.137449637055397</v>
+      </c>
+      <c r="N1" t="n">
+        <v>-0.2394793480634689</v>
+      </c>
+      <c r="O1" t="n">
+        <v>-0.001910950290039182</v>
+      </c>
+      <c r="P1" t="n">
+        <v>0.2005635201931</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>-0.1585723310709</v>
+      </c>
+      <c r="R1" t="n">
+        <v>0.04899651557207108</v>
+      </c>
+      <c r="S1" t="n">
+        <v>0.01722900755703449</v>
+      </c>
+      <c r="T1" t="n">
+        <v>-0.3065441250801086</v>
+      </c>
+      <c r="U1" t="n">
+        <v>0.06732465326786041</v>
+      </c>
+      <c r="V1" t="n">
+        <v>0.003512547118589282</v>
+      </c>
+      <c r="W1" t="n">
+        <v>0.06074834242463112</v>
+      </c>
+      <c r="X1" t="n">
+        <v>0.1949927359819412</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>-0.02951431460678577</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>0.0144432932138443</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>-0.1130170524120331</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>-0.2375815063714981</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.08160436898469925</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>-0.02357335761189461</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.1030929163098335</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1906598806381226</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.09983337670564651</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3026470839977264</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.1192106008529663</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.2532877326011658</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2847890853881836</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.06923320889472961</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.1389192640781403</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.1313371360301971</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.1302293092012405</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.2056390196084976</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.3361083567142487</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.2132063657045364</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.02202738262712955</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.07938743382692337</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2333235889673233</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01497713383287191</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.2046240717172623</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.02810719236731529</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.07791315019130707</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.07434327900409698</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.1128937005996704</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2878735363483429</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.05857761576771736</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.263460248708725</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.05190162360668182</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.05515002831816673</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.1677767783403397</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.1789399534463882</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.1083988323807716</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.03770695626735687</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1460252702236176</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.2875452637672424</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.1282734721899033</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05361255258321762</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.07481092214584351</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.09976373612880707</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1092226654291153</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.1850714236497879</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.1490087509155273</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.1558259427547455</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.03629302605986595</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.09378761053085327</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.06915164738893509</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.01764094643294811</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.08990553021430969</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.05973373726010323</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.1641744077205658</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1207099705934525</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.0447029136121273</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.1625371426343918</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2765411138534546</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1418970823287964</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.1295016258955002</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.3621324002742767</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.1861210763454437</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.1949956715106964</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.1028160005807877</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.3054366111755371</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.1551174372434616</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1902107745409012</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.09557579457759857</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1630472391843796</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.1040099337697029</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.04128103703260422</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.08747856318950653</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1006546020507812</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.05725683644413948</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.03043055534362793</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.07137245684862137</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.1109616756439209</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.09558451175689697</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.05089080333709717</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.03173014521598816</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2389138042926788</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.03413891419768333</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.005844844505190849</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.07325022667646408</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.04147009178996086</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.04416960477828979</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.05800230801105499</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.02536274492740631</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.06638295203447342</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.01080059446394444</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.07336796075105667</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.02323241718113422</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.04987228661775589</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.06437850743532181</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.304015576839447</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>